--- a/data/expt_2/raw_transcripts/game74.xlsx
+++ b/data/expt_2/raw_transcripts/game74.xlsx
@@ -1,31 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="M2U00111.MPG.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="M2U00111.MPG.csv" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A116">
+    <comment ref="A116" authorId="0">
       <text>
-        <t xml:space="preserve">this whole trial didn't get picked up by the code so timestamps are very off
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">this whole trial didn't get picked up by the code so timestamps are very off
 	-Rebecca Jacqueline Pizzitola</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E49">
+    <comment ref="E49" authorId="0">
       <text>
-        <t xml:space="preserve">id135 touched before id136 said anything
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">id135 touched before id136 said anything
 	-Rebecca Jacqueline Pizzitola</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -33,57 +56,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="144">
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>trial</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>description</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="144">
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
   </si>
   <si>
     <t xml:space="preserve"> So I have to record so that later, if I forget anything, I can watch it.</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>I remember.</t>
-  </si>
-  <si>
-    <t>Okay.</t>
-  </si>
-  <si>
-    <t>What do we do now?</t>
-  </si>
-  <si>
-    <t>id135</t>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I remember.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do we do now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id135</t>
   </si>
   <si>
     <t xml:space="preserve"> If you guys want to go back to the classroom at any point, just let me know.</t>
   </si>
   <si>
-    <t>All right?</t>
-  </si>
-  <si>
-    <t>We're going to play a fun matching game.</t>
+    <t xml:space="preserve">All right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We're going to play a fun matching game.</t>
   </si>
   <si>
     <t xml:space="preserve"> But first, we're going to practice touching the iPads by playing a bubble popping game.</t>
@@ -92,34 +115,34 @@
     <t xml:space="preserve"> So touch the blue button, oh, you already did.</t>
   </si>
   <si>
-    <t>And now pop all the bubbles that you see on the screen.</t>
-  </si>
-  <si>
-    <t>Popped all of them.</t>
-  </si>
-  <si>
-    <t>id136</t>
+    <t xml:space="preserve">And now pop all the bubbles that you see on the screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popped all of them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id136</t>
   </si>
   <si>
     <t xml:space="preserve"> Pop those one, too.</t>
   </si>
   <si>
-    <t>Good job. We'll wait for [id136] to finish.</t>
-  </si>
-  <si>
-    <t>Awesome. Now I'll explain...</t>
-  </si>
-  <si>
-    <t>I know.</t>
-  </si>
-  <si>
-    <t>Now I'm going to explain the matching game.</t>
+    <t xml:space="preserve">Good job. We'll wait for [id136] to finish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome. Now I'll explain...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now I'm going to explain the matching game.</t>
   </si>
   <si>
     <t xml:space="preserve"> In this game, you're going to help Smurphy.</t>
   </si>
   <si>
-    <t>You're going to say hi to Smurphy.</t>
+    <t xml:space="preserve">You're going to say hi to Smurphy.</t>
   </si>
   <si>
     <t xml:space="preserve"> Hi, Smirphi.</t>
@@ -131,25 +154,25 @@
     <t xml:space="preserve"> In this game, one of you, you both are going to see two pictures on your screen.</t>
   </si>
   <si>
-    <t>One of you will have a picture with a black box.</t>
+    <t xml:space="preserve">One of you will have a picture with a black box.</t>
   </si>
   <si>
     <t xml:space="preserve"> If you have the black box, your job is to tell the other person, tell Smurphy what you</t>
   </si>
   <si>
-    <t>see in that black box.</t>
+    <t xml:space="preserve">see in that black box.</t>
   </si>
   <si>
     <t xml:space="preserve"> If you're holding Smurphy, your job is to guess which pictures in the black box.</t>
   </si>
   <si>
-    <t>So once you hear your person.</t>
+    <t xml:space="preserve">So once you hear your person.</t>
   </si>
   <si>
     <t xml:space="preserve"> When I open a black box, there will be a black box.</t>
   </si>
   <si>
-    <t>Right.</t>
+    <t xml:space="preserve">Right.</t>
   </si>
   <si>
     <t xml:space="preserve"> So then if you have the black box, you're going to tell [id136], oh, I see a banana.</t>
@@ -158,16 +181,16 @@
     <t xml:space="preserve"> And then [id136], you're going to help Smurphy pick the banana by touching it.</t>
   </si>
   <si>
-    <t>And we're going to take turns being the guesser and the teller.</t>
-  </si>
-  <si>
-    <t>So what do you do if you see a black box?</t>
-  </si>
-  <si>
-    <t>Tell somebody.</t>
-  </si>
-  <si>
-    <t>And what do you do if you're holding Smurphy?</t>
+    <t xml:space="preserve">And we're going to take turns being the guesser and the teller.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So what do you do if you see a black box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell somebody.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And what do you do if you're holding Smurphy?</t>
   </si>
   <si>
     <t xml:space="preserve"> Uh, help him to touch the banana</t>
@@ -176,28 +199,28 @@
     <t xml:space="preserve"> Right, ok.</t>
   </si>
   <si>
-    <t>So I think you're ready to play.</t>
-  </si>
-  <si>
-    <t>Go ahead and press.</t>
-  </si>
-  <si>
-    <t>What?</t>
-  </si>
-  <si>
-    <t>The button.</t>
-  </si>
-  <si>
-    <t>Who has the black box?</t>
-  </si>
-  <si>
-    <t>Me.</t>
-  </si>
-  <si>
-    <t>Great.</t>
-  </si>
-  <si>
-    <t>You're the teller.</t>
+    <t xml:space="preserve">So I think you're ready to play.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go ahead and press.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who has the black box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're the teller.</t>
   </si>
   <si>
     <t xml:space="preserve"> So you'll have Smurphy this round,</t>
@@ -206,220 +229,220 @@
     <t xml:space="preserve"> and then we'll switch, right?</t>
   </si>
   <si>
-    <t>Uhh I see a a banana and a apple int he black box</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Now it's [id136]'s turn to guess.</t>
-  </si>
-  <si>
-    <t>I have a black box.</t>
+    <t xml:space="preserve">Uhh I see a a banana and a apple int he black box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now it's [id136]'s turn to guess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have a black box.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yes, so tell [id136] what you see in that black box.</t>
   </si>
   <si>
-    <t>There's a dog in that black box.</t>
-  </si>
-  <si>
-    <t>a dog</t>
-  </si>
-  <si>
-    <t>There's a dog in my black box.</t>
-  </si>
-  <si>
-    <t>So you're supposed to press which one you think it is.</t>
-  </si>
-  <si>
-    <t>Good job!</t>
-  </si>
-  <si>
-    <t>Don't press anything until [id136] tells you what she sees in the box.</t>
-  </si>
-  <si>
-    <t>House.</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>What do you see?</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>There's a house</t>
-  </si>
-  <si>
-    <t>Press it.</t>
-  </si>
-  <si>
-    <t>Good job.</t>
-  </si>
-  <si>
-    <t>I don't know what that is.</t>
-  </si>
-  <si>
-    <t>Just do your best to describe it.</t>
-  </si>
-  <si>
-    <t>It's a flamingo.</t>
-  </si>
-  <si>
-    <t>a flamingo</t>
+    <t xml:space="preserve">There's a dog in that black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's a dog in my black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So you're supposed to press which one you think it is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good job!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't press anything until [id136] tells you what she sees in the box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you see?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's a house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Press it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't know what that is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just do your best to describe it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a flamingo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a flamingo</t>
   </si>
   <si>
     <t xml:space="preserve"> Nope. We're going to use our words for this game, so no looking.</t>
   </si>
   <si>
-    <t>Whichever one you think it is. Good job!</t>
+    <t xml:space="preserve">Whichever one you think it is. Good job!</t>
   </si>
   <si>
     <t xml:space="preserve"> Alright, good.</t>
   </si>
   <si>
-    <t>I don't know what to do.</t>
-  </si>
-  <si>
-    <t>You have the black box?</t>
-  </si>
-  <si>
-    <t>Yeah</t>
-  </si>
-  <si>
-    <t>What does it look like? Tell [id135].</t>
-  </si>
-  <si>
-    <t>I don't see anything.</t>
-  </si>
-  <si>
-    <t>Kite, I think</t>
-  </si>
-  <si>
-    <t>kite</t>
-  </si>
-  <si>
-    <t>Kite.</t>
-  </si>
-  <si>
-    <t>Which one do you think it is?</t>
-  </si>
-  <si>
-    <t>Good job. You guys are good this.</t>
-  </si>
-  <si>
-    <t>There is a monster.</t>
-  </si>
-  <si>
-    <t>a monster</t>
-  </si>
-  <si>
-    <t>There is a monster in my box.</t>
-  </si>
-  <si>
-    <t>I-</t>
+    <t xml:space="preserve">I don't know what to do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have the black box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does it look like? Tell [id135].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't see anything.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kite, I think</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which one do you think it is?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good job. You guys are good this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a monster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a monster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a monster in my box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I-</t>
   </si>
   <si>
     <t xml:space="preserve"> Uh, boat.</t>
   </si>
   <si>
-    <t>boat</t>
-  </si>
-  <si>
-    <t>Boat.</t>
-  </si>
-  <si>
-    <t>Press which one you think it is?</t>
-  </si>
-  <si>
-    <t>There's a person in my box.</t>
-  </si>
-  <si>
-    <t>a person</t>
-  </si>
-  <si>
-    <t>There's a monster.</t>
-  </si>
-  <si>
-    <t>Monsters.</t>
-  </si>
-  <si>
-    <t>monster</t>
-  </si>
-  <si>
-    <t>Awesome.</t>
-  </si>
-  <si>
-    <t>Awesome. You guys are so good at this.</t>
-  </si>
-  <si>
-    <t>I'm gooder than you.</t>
-  </si>
-  <si>
-    <t>You are.</t>
-  </si>
-  <si>
-    <t>You both are.</t>
-  </si>
-  <si>
-    <t>Tell [id135] what you see in your box.</t>
-  </si>
-  <si>
-    <t>a boat again.</t>
-  </si>
-  <si>
-    <t>a boat</t>
-  </si>
-  <si>
-    <t>A kite in mine.</t>
-  </si>
-  <si>
-    <t>a kite</t>
-  </si>
-  <si>
-    <t>A kite.</t>
-  </si>
-  <si>
-    <t>There's a...</t>
-  </si>
-  <si>
-    <t>Kite in my box</t>
-  </si>
-  <si>
-    <t>Yay!</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Yay woo!</t>
-  </si>
-  <si>
-    <t>There's a person in my box again!</t>
+    <t xml:space="preserve">boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Press which one you think it is?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's a person in my box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's a monster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monsters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome. You guys are so good at this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm gooder than you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You both are.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell [id135] what you see in your box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a boat again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A kite in mine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a kite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A kite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's a...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kite in my box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay woo!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's a person in my box again!</t>
   </si>
   <si>
     <t xml:space="preserve"> E, E, E, E.</t>
   </si>
   <si>
-    <t>Monster.</t>
-  </si>
-  <si>
-    <t>Monster</t>
-  </si>
-  <si>
-    <t>There's a boat in my box</t>
-  </si>
-  <si>
-    <t>There's a kite in my box</t>
-  </si>
-  <si>
-    <t>You don't win.</t>
-  </si>
-  <si>
-    <t>There's a different person</t>
+    <t xml:space="preserve">Monster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's a boat in my box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's a kite in my box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You don't win.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's a different person</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, you...</t>
@@ -428,60 +451,86 @@
     <t xml:space="preserve"> Press the one that you think it is, not the one you think it isn't.</t>
   </si>
   <si>
-    <t>Tell [id135] which one you think it is.</t>
-  </si>
-  <si>
-    <t>what you see in the box.</t>
-  </si>
-  <si>
-    <t>boat.</t>
-  </si>
-  <si>
-    <t>There is a monster of my box.</t>
-  </si>
-  <si>
-    <t>You guys did it!</t>
-  </si>
-  <si>
-    <t>Thank you so much for playing my game.</t>
-  </si>
-  <si>
-    <t>Was that fun?</t>
-  </si>
-  <si>
-    <t>I want to play again.</t>
+    <t xml:space="preserve">Tell [id135] which one you think it is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what you see in the box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a monster of my box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You guys did it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you so much for playing my game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was that fun?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to play again.</t>
   </si>
   <si>
     <t xml:space="preserve"> Unfortunately,</t>
   </si>
   <si>
-    <t>We have a fire drill in five minutes so we have to go back to the classroom</t>
-  </si>
-  <si>
-    <t>But you forgot of the fire drill? Well</t>
+    <t xml:space="preserve">We have a fire drill in five minutes so we have to go back to the classroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But you forgot of the fire drill? Well</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, so we'll go back to the classroom and do the fire drill and then if we can play again</t>
   </si>
   <si>
-    <t>Later or another day when you get back from white. Okay wait for me</t>
+    <t xml:space="preserve">Later or another day when you get back from white. Okay wait for me</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -489,32 +538,62 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -525,94 +604,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -620,33 +695,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -659,13 +725,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -675,15 +735,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -691,7 +749,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -699,11 +756,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -712,22 +769,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H140" activeCellId="0" sqref="H140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="21.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.38"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,12 +812,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5320.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>5320</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -767,12 +826,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>5320.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6320.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>5320</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>6320</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -781,12 +840,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>6320.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7320.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>6320</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>7320</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -795,12 +854,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>7320.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>10560.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>7320</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>10560</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -809,12 +868,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>10560.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>13760.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>10560</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>13760</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -823,12 +882,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>13760.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>14760.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>13760</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>14760</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -837,12 +896,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>14760.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>15760.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>14760</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>15760</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -851,12 +910,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>15760.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>17240.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>15760</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>17240</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -865,12 +924,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>17240.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>22760.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>17240</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>22760</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -879,12 +938,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>22760.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>25120.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>22760</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>25120</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -893,12 +952,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>25120.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>27120.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>25120</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>27120</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -907,12 +966,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>33120.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>34120.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>33120</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>34120</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -921,12 +980,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>34120.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>36120.0</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>34120</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>36120</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -935,12 +994,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>36120.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>39120.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>36120</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>39120</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -949,12 +1008,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>39120.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>45120.0</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>39120</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45120</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
@@ -963,12 +1022,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>45120.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>47120.0</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>45120</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>47120</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>25</v>
@@ -977,12 +1036,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>47120.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>50120.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>47120</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>50120</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -991,12 +1050,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>50120.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>53120.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>50120</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>53120</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
@@ -1005,12 +1064,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>53120.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>54120.0</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>53120</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>54120</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
@@ -1019,12 +1078,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>54120.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>55120.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>54120</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>55120</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
@@ -1033,12 +1092,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>55120.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>58120.0</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>55120</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>58120</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>30</v>
@@ -1047,12 +1106,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>58120.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>64340.0</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>58120</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>64340</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>31</v>
@@ -1061,12 +1120,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>64340.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>68320.0</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>64340</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>68320</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -1075,12 +1134,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>68320.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>74000.0</v>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>68320</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>74000</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
@@ -1089,12 +1148,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>74000.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>76540.0</v>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>74000</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>76540</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>34</v>
@@ -1103,12 +1162,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>76540.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>82300.0</v>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>76540</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>82300</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>35</v>
@@ -1117,12 +1176,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>82300.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>83940.0</v>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>82300</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>83940</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>36</v>
@@ -1131,12 +1190,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>83940.0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>87940.0</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>83940</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>87940</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>37</v>
@@ -1145,12 +1204,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>87940.0</v>
-      </c>
-      <c r="B30" s="1">
-        <v>88940.0</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>87940</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>88940</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>38</v>
@@ -1159,12 +1218,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>88940.0</v>
-      </c>
-      <c r="B31" s="1">
-        <v>91940.0</v>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>88940</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>91940</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
@@ -1173,12 +1232,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>91940.0</v>
-      </c>
-      <c r="B32" s="1">
-        <v>97940.0</v>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>91940</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>97940</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>40</v>
@@ -1187,12 +1246,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>97940.0</v>
-      </c>
-      <c r="B33" s="1">
-        <v>102940.0</v>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>97940</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>102940</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>41</v>
@@ -1201,12 +1260,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>102940.0</v>
-      </c>
-      <c r="B34" s="1">
-        <v>105940.0</v>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>102940</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>105940</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>42</v>
@@ -1215,12 +1274,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>105940.0</v>
-      </c>
-      <c r="B35" s="1">
-        <v>106940.0</v>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>105940</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>106940</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>43</v>
@@ -1229,12 +1288,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>106940.0</v>
-      </c>
-      <c r="B36" s="1">
-        <v>109940.0</v>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>106940</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>109940</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>44</v>
@@ -1243,12 +1302,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>109940.0</v>
-      </c>
-      <c r="B37" s="1">
-        <v>112940.0</v>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>109940</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>112940</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>45</v>
@@ -1257,12 +1316,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>115780.0</v>
-      </c>
-      <c r="B38" s="1">
-        <v>116940.0</v>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>115780</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>116940</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>46</v>
@@ -1271,12 +1330,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>118080.0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>119680.0</v>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>118080</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>119680</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>47</v>
@@ -1285,12 +1344,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>119680.0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>121380.0</v>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>119680</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>121380</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>48</v>
@@ -1299,12 +1358,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>121380.0</v>
-      </c>
-      <c r="B41" s="1">
-        <v>122380.0</v>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>121380</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>122380</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>49</v>
@@ -1313,12 +1372,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>122380.0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>123380.0</v>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>122380</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>123380</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>50</v>
@@ -1327,12 +1386,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>123380.0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>124780.0</v>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>123380</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>124780</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>51</v>
@@ -1341,12 +1400,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>124780.0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>125380.0</v>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>124780</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>125380</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>52</v>
@@ -1355,12 +1414,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>125380.0</v>
-      </c>
-      <c r="B45" s="1">
-        <v>125680.0</v>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>125380</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>125680</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>53</v>
@@ -1369,12 +1428,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>125680.0</v>
-      </c>
-      <c r="B46" s="1">
-        <v>126380.0</v>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>125680</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>126380</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>54</v>
@@ -1383,12 +1442,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>126380.0</v>
-      </c>
-      <c r="B47" s="1">
-        <v>128180.0</v>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>126380</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>128180</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>55</v>
@@ -1397,12 +1456,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>128180.0</v>
-      </c>
-      <c r="B48" s="1">
-        <v>129380.0</v>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>128180</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>129380</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>56</v>
@@ -1411,12 +1470,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>129380.0</v>
-      </c>
-      <c r="B49" s="1">
-        <v>137580.0</v>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>129380</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>137580</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>57</v>
@@ -1424,19 +1483,19 @@
       <c r="D49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="1">
-        <v>0.0</v>
+      <c r="E49" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>137580.0</v>
-      </c>
-      <c r="B50" s="1">
-        <v>139080.0</v>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>137580</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>139080</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>59</v>
@@ -1445,12 +1504,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>139080.0</v>
-      </c>
-      <c r="B51" s="1">
-        <v>140280.0</v>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>139080</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>140280</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>60</v>
@@ -1459,12 +1518,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>140280.0</v>
-      </c>
-      <c r="B52" s="1">
-        <v>142760.0</v>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>140280</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>142760</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>61</v>
@@ -1473,12 +1532,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>142760.0</v>
-      </c>
-      <c r="B53" s="1">
-        <v>147760.0</v>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>142760</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>147760</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>62</v>
@@ -1486,8 +1545,8 @@
       <c r="D53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="1">
-        <v>1.0</v>
+      <c r="E53" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>58</v>
@@ -1496,12 +1555,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>147760.0</v>
-      </c>
-      <c r="B54" s="1">
-        <v>151020.0</v>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>147760</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>151020</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>64</v>
@@ -1510,12 +1569,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1">
-        <v>151020.0</v>
-      </c>
-      <c r="B55" s="1">
-        <v>153460.0</v>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>151020</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>153460</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>65</v>
@@ -1524,12 +1583,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1">
-        <v>156200.0</v>
-      </c>
-      <c r="B56" s="1">
-        <v>157200.0</v>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>156200</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>157200</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>66</v>
@@ -1538,12 +1597,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>160340.0</v>
-      </c>
-      <c r="B57" s="1">
-        <v>163340.0</v>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>160340</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>163340</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>67</v>
@@ -1552,12 +1611,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1">
-        <v>164340.0</v>
-      </c>
-      <c r="B58" s="1">
-        <v>165340.0</v>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>164340</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>165340</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>68</v>
@@ -1565,8 +1624,8 @@
       <c r="D58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="1">
-        <v>2.0</v>
+      <c r="E58" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>58</v>
@@ -1575,12 +1634,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1">
-        <v>165340.0</v>
-      </c>
-      <c r="B59" s="1">
-        <v>171340.0</v>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>165340</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>171340</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>70</v>
@@ -1592,12 +1651,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>171340.0</v>
-      </c>
-      <c r="B60" s="1">
-        <v>173340.0</v>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>171340</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>173340</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>68</v>
@@ -1608,16 +1667,14 @@
       <c r="F60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>171340.0</v>
-      </c>
-      <c r="B61" s="1">
-        <v>173340.0</v>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>171340</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>173340</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>72</v>
@@ -1629,12 +1686,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>173340.0</v>
-      </c>
-      <c r="B62" s="1">
-        <v>174340.0</v>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>173340</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>174340</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>73</v>
@@ -1643,12 +1700,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>174340.0</v>
-      </c>
-      <c r="B63" s="1">
-        <v>175340.0</v>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>174340</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>175340</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>68</v>
@@ -1660,12 +1717,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1">
-        <v>175340.0</v>
-      </c>
-      <c r="B64" s="1">
-        <v>177340.0</v>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>175340</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>177340</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>74</v>
@@ -1674,12 +1731,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1">
-        <v>177340.0</v>
-      </c>
-      <c r="B65" s="1">
-        <v>185340.0</v>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>177340</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>185340</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>75</v>
@@ -1687,19 +1744,19 @@
       <c r="D65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="1">
-        <v>3.0</v>
+      <c r="E65" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>185340.0</v>
-      </c>
-      <c r="B66" s="1">
-        <v>188340.0</v>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>185340</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>188340</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>76</v>
@@ -1708,12 +1765,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>188340.0</v>
-      </c>
-      <c r="B67" s="1">
-        <v>193340.0</v>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>188340</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>193340</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>77</v>
@@ -1728,12 +1785,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1">
-        <v>193340.0</v>
-      </c>
-      <c r="B68" s="1">
-        <v>200340.0</v>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>193340</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>200340</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>79</v>
@@ -1742,12 +1799,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1">
-        <v>200340.0</v>
-      </c>
-      <c r="B69" s="1">
-        <v>204340.0</v>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>200340</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>204340</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>80</v>
@@ -1756,12 +1813,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1">
-        <v>204340.0</v>
-      </c>
-      <c r="B70" s="1">
-        <v>206340.0</v>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>204340</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>206340</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>81</v>
@@ -1770,12 +1827,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1">
-        <v>206340.0</v>
-      </c>
-      <c r="B71" s="1">
-        <v>209340.0</v>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>206340</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>209340</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>82</v>
@@ -1783,19 +1840,19 @@
       <c r="D71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E71" s="1">
-        <v>4.0</v>
+      <c r="E71" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1">
-        <v>209340.0</v>
-      </c>
-      <c r="B72" s="1">
-        <v>211340.0</v>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>209340</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>211340</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>83</v>
@@ -1804,12 +1861,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1">
-        <v>211340.0</v>
-      </c>
-      <c r="B73" s="1">
-        <v>214340.0</v>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>211340</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>214340</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>84</v>
@@ -1821,12 +1878,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1">
-        <v>211340.0</v>
-      </c>
-      <c r="B74" s="1">
-        <v>214340.0</v>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>211340</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>214340</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>85</v>
@@ -1835,12 +1892,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1">
-        <v>216340.0</v>
-      </c>
-      <c r="B75" s="1">
-        <v>222340.0</v>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>216340</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>222340</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>86</v>
@@ -1852,12 +1909,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1">
-        <v>222340.0</v>
-      </c>
-      <c r="B76" s="1">
-        <v>224340.0</v>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>222340</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>224340</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>87</v>
@@ -1872,12 +1929,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1">
-        <v>224340.0</v>
-      </c>
-      <c r="B77" s="1">
-        <v>227340.0</v>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>224340</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>227340</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>89</v>
@@ -1889,12 +1946,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1">
-        <v>227340.0</v>
-      </c>
-      <c r="B78" s="1">
-        <v>230340.0</v>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>227340</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>230340</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>90</v>
@@ -1903,12 +1960,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1">
-        <v>230340.0</v>
-      </c>
-      <c r="B79" s="1">
-        <v>232340.0</v>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>230340</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>232340</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>89</v>
@@ -1920,12 +1977,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1">
-        <v>232340.0</v>
-      </c>
-      <c r="B80" s="1">
-        <v>236340.0</v>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>232340</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>236340</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>91</v>
@@ -1934,12 +1991,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1">
-        <v>236340.0</v>
-      </c>
-      <c r="B81" s="1">
-        <v>242340.0</v>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>236340</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>242340</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>92</v>
@@ -1947,8 +2004,8 @@
       <c r="D81" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="1">
-        <v>5.0</v>
+      <c r="E81" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>58</v>
@@ -1957,12 +2014,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1">
-        <v>242340.0</v>
-      </c>
-      <c r="B82" s="1">
-        <v>246340.0</v>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>242340</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>246340</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>94</v>
@@ -1974,12 +2031,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1">
-        <v>246340.0</v>
-      </c>
-      <c r="B83" s="1">
-        <v>249340.0</v>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>246340</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>249340</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>92</v>
@@ -1991,12 +2048,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1">
-        <v>249340.0</v>
-      </c>
-      <c r="B84" s="1">
-        <v>251340.0</v>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>249340</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>251340</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>74</v>
@@ -2005,12 +2062,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1">
-        <v>251340.0</v>
-      </c>
-      <c r="B85" s="1">
-        <v>255340.0</v>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>251340</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>255340</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>95</v>
@@ -2019,12 +2076,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1">
-        <v>255340.0</v>
-      </c>
-      <c r="B86" s="1">
-        <v>258340.0</v>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>255340</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>258340</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>96</v>
@@ -2032,8 +2089,8 @@
       <c r="D86" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E86" s="1">
-        <v>6.0</v>
+      <c r="E86" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>58</v>
@@ -2042,12 +2099,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1">
-        <v>258340.0</v>
-      </c>
-      <c r="B87" s="1">
-        <v>259340.0</v>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>258340</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>259340</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>98</v>
@@ -2058,16 +2115,14 @@
       <c r="F87" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1">
-        <v>263340.0</v>
-      </c>
-      <c r="B88" s="1">
-        <v>265340.0</v>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>263340</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>265340</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>99</v>
@@ -2076,12 +2131,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1">
-        <v>265340.0</v>
-      </c>
-      <c r="B89" s="1">
-        <v>266340.0</v>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>265340</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>266340</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>98</v>
@@ -2093,12 +2148,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1">
-        <v>266340.0</v>
-      </c>
-      <c r="B90" s="1">
-        <v>267340.0</v>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>266340</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>267340</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>98</v>
@@ -2110,12 +2165,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1">
-        <v>267340.0</v>
-      </c>
-      <c r="B91" s="1">
-        <v>269340.0</v>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>267340</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>269340</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>74</v>
@@ -2124,12 +2179,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1">
-        <v>269340.0</v>
-      </c>
-      <c r="B92" s="1">
-        <v>275340.0</v>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>269340</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>275340</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>100</v>
@@ -2137,8 +2192,8 @@
       <c r="D92" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="1">
-        <v>7.0</v>
+      <c r="E92" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>58</v>
@@ -2147,12 +2202,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1">
-        <v>275340.0</v>
-      </c>
-      <c r="B93" s="1">
-        <v>279340.0</v>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>275340</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>279340</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>100</v>
@@ -2163,16 +2218,14 @@
       <c r="F93" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1">
-        <v>279340.0</v>
-      </c>
-      <c r="B94" s="1">
-        <v>286340.0</v>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>279340</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>286340</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>74</v>
@@ -2181,12 +2234,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1">
-        <v>286340.0</v>
-      </c>
-      <c r="B95" s="1">
-        <v>291340.0</v>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>286340</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>291340</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>102</v>
@@ -2194,8 +2247,8 @@
       <c r="D95" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E95" s="1">
-        <v>8.0</v>
+      <c r="E95" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>58</v>
@@ -2204,12 +2257,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1">
-        <v>291340.0</v>
-      </c>
-      <c r="B96" s="1">
-        <v>292340.0</v>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>291340</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>292340</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>103</v>
@@ -2224,12 +2277,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1">
-        <v>295340.0</v>
-      </c>
-      <c r="B97" s="1">
-        <v>296340.0</v>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>295340</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>296340</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>105</v>
@@ -2238,12 +2291,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>296340.0</v>
-      </c>
-      <c r="B98" s="1">
-        <v>307340.0</v>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>296340</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>307340</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>100</v>
@@ -2251,8 +2304,8 @@
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="1">
-        <v>9.0</v>
+      <c r="E98" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>58</v>
@@ -2261,12 +2314,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1">
-        <v>307340.0</v>
-      </c>
-      <c r="B99" s="1">
-        <v>310340.0</v>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>307340</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>310340</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>106</v>
@@ -2275,12 +2328,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1">
-        <v>310340.0</v>
-      </c>
-      <c r="B100" s="1">
-        <v>312340.0</v>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>310340</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>312340</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>107</v>
@@ -2289,12 +2342,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1">
-        <v>312340.0</v>
-      </c>
-      <c r="B101" s="1">
-        <v>313340.0</v>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>312340</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>313340</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>108</v>
@@ -2303,12 +2356,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1">
-        <v>313340.0</v>
-      </c>
-      <c r="B102" s="1">
-        <v>315340.0</v>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>313340</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>315340</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>107</v>
@@ -2317,12 +2370,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1">
-        <v>315340.0</v>
-      </c>
-      <c r="B103" s="1">
-        <v>316340.0</v>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>315340</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>316340</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>109</v>
@@ -2331,12 +2384,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1">
-        <v>316340.0</v>
-      </c>
-      <c r="B104" s="1">
-        <v>318340.0</v>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>316340</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>318340</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>110</v>
@@ -2345,12 +2398,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1">
-        <v>318340.0</v>
-      </c>
-      <c r="B105" s="1">
-        <v>320340.0</v>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>318340</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>320340</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>111</v>
@@ -2358,8 +2411,8 @@
       <c r="D105" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E105" s="1">
-        <v>10.0</v>
+      <c r="E105" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>58</v>
@@ -2368,12 +2421,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1">
-        <v>320340.0</v>
-      </c>
-      <c r="B106" s="1">
-        <v>322340.0</v>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>320340</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>322340</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>105</v>
@@ -2382,12 +2435,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1">
-        <v>322340.0</v>
-      </c>
-      <c r="B107" s="1">
-        <v>324340.0</v>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>322340</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>324340</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>113</v>
@@ -2395,8 +2448,8 @@
       <c r="D107" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="1">
-        <v>11.0</v>
+      <c r="E107" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>58</v>
@@ -2405,12 +2458,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1">
-        <v>324340.0</v>
-      </c>
-      <c r="B108" s="1">
-        <v>329340.0</v>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>324340</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>329340</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>115</v>
@@ -2422,12 +2475,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1">
-        <v>332340.0</v>
-      </c>
-      <c r="B109" s="1">
-        <v>333340.0</v>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>332340</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>333340</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>105</v>
@@ -2436,12 +2489,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1">
-        <v>334340.0</v>
-      </c>
-      <c r="B110" s="1">
-        <v>338340.0</v>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>334340</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>338340</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>116</v>
@@ -2449,19 +2502,19 @@
       <c r="D110" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E110" s="1">
-        <v>12.0</v>
+      <c r="E110" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1">
-        <v>338340.0</v>
-      </c>
-      <c r="B111" s="1">
-        <v>341340.0</v>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>338340</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>341340</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>117</v>
@@ -2476,12 +2529,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1">
-        <v>343340.0</v>
-      </c>
-      <c r="B112" s="1">
-        <v>344340.0</v>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>343340</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>344340</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>118</v>
@@ -2490,12 +2543,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1">
-        <v>344340.0</v>
-      </c>
-      <c r="B113" s="1">
-        <v>345340.0</v>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>344340</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>345340</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>120</v>
@@ -2504,12 +2557,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1">
-        <v>345340.0</v>
-      </c>
-      <c r="B114" s="1">
-        <v>347340.0</v>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>345340</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>347340</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>120</v>
@@ -2518,12 +2571,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1">
-        <v>347340.0</v>
-      </c>
-      <c r="B115" s="1">
-        <v>352340.0</v>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>347340</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>352340</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>121</v>
@@ -2531,8 +2584,8 @@
       <c r="D115" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E115" s="1">
-        <v>13.0</v>
+      <c r="E115" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>58</v>
@@ -2541,12 +2594,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1">
-        <v>354340.0</v>
-      </c>
-      <c r="B116" s="1">
-        <v>356340.0</v>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>354340</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>356340</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>122</v>
@@ -2555,12 +2608,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1">
-        <v>356340.0</v>
-      </c>
-      <c r="B117" s="1">
-        <v>357340.0</v>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>356340</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>357340</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>123</v>
@@ -2568,8 +2621,8 @@
       <c r="D117" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E117" s="1">
-        <v>14.0</v>
+      <c r="E117" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>58</v>
@@ -2578,12 +2631,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1">
-        <v>356340.0</v>
-      </c>
-      <c r="B118" s="1">
-        <v>357340.0</v>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>356340</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>357340</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>124</v>
@@ -2595,12 +2648,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1">
-        <v>359340.0</v>
-      </c>
-      <c r="B119" s="1">
-        <v>374340.0</v>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>359340</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>374340</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>125</v>
@@ -2608,8 +2661,8 @@
       <c r="D119" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="1">
-        <v>15.0</v>
+      <c r="E119" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>58</v>
@@ -2618,12 +2671,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1">
-        <v>374340.0</v>
-      </c>
-      <c r="B120" s="1">
-        <v>375340.0</v>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>374340</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>375340</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>118</v>
@@ -2632,12 +2685,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1">
-        <v>381340.0</v>
-      </c>
-      <c r="B121" s="1">
-        <v>383340.0</v>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>381340</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>383340</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>126</v>
@@ -2645,8 +2698,8 @@
       <c r="D121" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E121" s="1">
-        <v>16.0</v>
+      <c r="E121" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>58</v>
@@ -2655,12 +2708,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1">
-        <v>383340.0</v>
-      </c>
-      <c r="B122" s="1">
-        <v>384340.0</v>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>383340</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>384340</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>118</v>
@@ -2669,12 +2722,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1">
-        <v>384340.0</v>
-      </c>
-      <c r="B123" s="1">
-        <v>387340.0</v>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>384340</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>387340</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>127</v>
@@ -2683,12 +2736,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1">
-        <v>387340.0</v>
-      </c>
-      <c r="B124" s="1">
-        <v>389340.0</v>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>387340</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>389340</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>128</v>
@@ -2697,12 +2750,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1">
-        <v>389340.0</v>
-      </c>
-      <c r="B125" s="1">
-        <v>392340.0</v>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>389340</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>392340</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>100</v>
@@ -2710,8 +2763,8 @@
       <c r="D125" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E125" s="1">
-        <v>17.0</v>
+      <c r="E125" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>58</v>
@@ -2720,12 +2773,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1">
-        <v>392340.0</v>
-      </c>
-      <c r="B126" s="1">
-        <v>395340.0</v>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>392340</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>395340</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>100</v>
@@ -2737,12 +2790,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1">
-        <v>395340.0</v>
-      </c>
-      <c r="B127" s="1">
-        <v>397340.0</v>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>395340</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>397340</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>129</v>
@@ -2751,12 +2804,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1">
-        <v>397340.0</v>
-      </c>
-      <c r="B128" s="1">
-        <v>400340.0</v>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>397340</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>400340</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>130</v>
@@ -2765,12 +2818,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1">
-        <v>400340.0</v>
-      </c>
-      <c r="B129" s="1">
-        <v>402340.0</v>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>400340</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>402340</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>11</v>
@@ -2779,12 +2832,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1">
-        <v>402340.0</v>
-      </c>
-      <c r="B130" s="1">
-        <v>404340.0</v>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>402340</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>404340</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>131</v>
@@ -2793,12 +2846,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1">
-        <v>404340.0</v>
-      </c>
-      <c r="B131" s="1">
-        <v>409340.0</v>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>404340</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>409340</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>132</v>
@@ -2807,12 +2860,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1">
-        <v>409340.0</v>
-      </c>
-      <c r="B132" s="1">
-        <v>414340.0</v>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>409340</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>414340</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>133</v>
@@ -2820,8 +2873,8 @@
       <c r="D132" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E132" s="1">
-        <v>18.0</v>
+      <c r="E132" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>58</v>
@@ -2830,12 +2883,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1">
-        <v>409340.0</v>
-      </c>
-      <c r="B133" s="1">
-        <v>414340.0</v>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>409340</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>414340</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>74</v>
@@ -2844,12 +2897,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1">
-        <v>414340.0</v>
-      </c>
-      <c r="B134" s="1">
-        <v>421340.0</v>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>414340</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>421340</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>134</v>
@@ -2857,8 +2910,8 @@
       <c r="D134" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="1">
-        <v>19.0</v>
+      <c r="E134" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>58</v>
@@ -2867,12 +2920,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1">
-        <v>421340.0</v>
-      </c>
-      <c r="B135" s="1">
-        <v>422340.0</v>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>421340</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>422340</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>118</v>
@@ -2881,12 +2934,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1">
-        <v>422340.0</v>
-      </c>
-      <c r="B136" s="1">
-        <v>425340.0</v>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>422340</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>425340</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>135</v>
@@ -2895,12 +2948,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1">
-        <v>425340.0</v>
-      </c>
-      <c r="B137" s="1">
-        <v>429340.0</v>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>425340</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>429340</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>136</v>
@@ -2909,12 +2962,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1">
-        <v>429340.0</v>
-      </c>
-      <c r="B138" s="1">
-        <v>430340.0</v>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>429340</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>430340</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>137</v>
@@ -2923,12 +2976,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1">
-        <v>430340.0</v>
-      </c>
-      <c r="B139" s="1">
-        <v>432340.0</v>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>430340</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>432340</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>138</v>
@@ -2937,12 +2990,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1">
-        <v>432340.0</v>
-      </c>
-      <c r="B140" s="1">
-        <v>433340.0</v>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>432340</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>433340</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>139</v>
@@ -2951,12 +3004,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1">
-        <v>433340.0</v>
-      </c>
-      <c r="B141" s="1">
-        <v>436900.0</v>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>433340</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>436900</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>140</v>
@@ -2965,12 +3018,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1">
-        <v>436900.0</v>
-      </c>
-      <c r="B142" s="1">
-        <v>441940.0</v>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>436900</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>441940</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>141</v>
@@ -2979,12 +3032,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1">
-        <v>442820.0</v>
-      </c>
-      <c r="B143" s="1">
-        <v>447340.0</v>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>442820</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>447340</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>142</v>
@@ -2993,12 +3046,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1">
-        <v>447340.0</v>
-      </c>
-      <c r="B144" s="1">
-        <v>454060.0</v>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>447340</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>454060</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>143</v>
@@ -3008,7 +3061,13 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>